--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.25649340773732</v>
+        <v>2.4208465</v>
       </c>
       <c r="N2">
-        <v>2.25649340773732</v>
+        <v>4.841693</v>
       </c>
       <c r="O2">
-        <v>0.5688378436566034</v>
+        <v>0.4241363608649917</v>
       </c>
       <c r="P2">
-        <v>0.5688378436566034</v>
+        <v>0.3365467172033127</v>
       </c>
       <c r="Q2">
-        <v>439.6377445663359</v>
+        <v>472.2568917453903</v>
       </c>
       <c r="R2">
-        <v>439.6377445663359</v>
+        <v>1889.027566981561</v>
       </c>
       <c r="S2">
-        <v>0.1523846085981326</v>
+        <v>0.1119976817000691</v>
       </c>
       <c r="T2">
-        <v>0.1523846085981326</v>
+        <v>0.0667138665423043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.49078934037036</v>
+        <v>0.947356</v>
       </c>
       <c r="N3">
-        <v>1.49078934037036</v>
+        <v>2.842068</v>
       </c>
       <c r="O3">
-        <v>0.375812041291478</v>
+        <v>0.1659783576875341</v>
       </c>
       <c r="P3">
-        <v>0.375812041291478</v>
+        <v>0.1975525204651729</v>
       </c>
       <c r="Q3">
-        <v>290.4538790038677</v>
+        <v>184.809487068406</v>
       </c>
       <c r="R3">
-        <v>290.4538790038677</v>
+        <v>1108.856922410436</v>
       </c>
       <c r="S3">
-        <v>0.1006753883506364</v>
+        <v>0.04382833680064005</v>
       </c>
       <c r="T3">
-        <v>0.1006753883506364</v>
+        <v>0.03916095986592989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.219565507332094</v>
+        <v>0.5007653333333333</v>
       </c>
       <c r="N4">
-        <v>0.219565507332094</v>
+        <v>1.502296</v>
       </c>
       <c r="O4">
-        <v>0.05535011505191859</v>
+        <v>0.08773492500550716</v>
       </c>
       <c r="P4">
-        <v>0.05535011505191859</v>
+        <v>0.1044247925400615</v>
       </c>
       <c r="Q4">
-        <v>42.77844734536097</v>
+        <v>97.68891989386532</v>
       </c>
       <c r="R4">
-        <v>42.77844734536097</v>
+        <v>586.1335193631919</v>
       </c>
       <c r="S4">
-        <v>0.01482760985772243</v>
+        <v>0.02316733275285966</v>
       </c>
       <c r="T4">
-        <v>0.01482760985772243</v>
+        <v>0.02070019203015093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.25649340773732</v>
+        <v>1.522854666666667</v>
       </c>
       <c r="N5">
-        <v>2.25649340773732</v>
+        <v>4.568564</v>
       </c>
       <c r="O5">
-        <v>0.5688378436566034</v>
+        <v>0.2668066878450451</v>
       </c>
       <c r="P5">
-        <v>0.5688378436566034</v>
+        <v>0.3175614844917336</v>
       </c>
       <c r="Q5">
-        <v>132.6885948776213</v>
+        <v>297.0773287195047</v>
       </c>
       <c r="R5">
-        <v>132.6885948776213</v>
+        <v>1782.463972317028</v>
       </c>
       <c r="S5">
-        <v>0.0459917280664959</v>
+        <v>0.07045312134941152</v>
       </c>
       <c r="T5">
-        <v>0.0459917280664959</v>
+        <v>0.0629504119707664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49078934037036</v>
+        <v>0.3158855</v>
       </c>
       <c r="N6">
-        <v>1.49078934037036</v>
+        <v>0.631771</v>
       </c>
       <c r="O6">
-        <v>0.375812041291478</v>
+        <v>0.05534366859692191</v>
       </c>
       <c r="P6">
-        <v>0.375812041291478</v>
+        <v>0.04391448529971934</v>
       </c>
       <c r="Q6">
-        <v>87.66289418528908</v>
+        <v>61.62270279319175</v>
       </c>
       <c r="R6">
-        <v>87.66289418528908</v>
+        <v>246.490811172767</v>
       </c>
       <c r="S6">
-        <v>0.03038518867887869</v>
+        <v>0.0146140796959523</v>
       </c>
       <c r="T6">
-        <v>0.03038518867887869</v>
+        <v>0.008705195926156021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H7">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I7">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J7">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.219565507332094</v>
+        <v>2.4208465</v>
       </c>
       <c r="N7">
-        <v>0.219565507332094</v>
+        <v>4.841693</v>
       </c>
       <c r="O7">
-        <v>0.05535011505191859</v>
+        <v>0.4241363608649917</v>
       </c>
       <c r="P7">
-        <v>0.05535011505191859</v>
+        <v>0.3365467172033127</v>
       </c>
       <c r="Q7">
-        <v>12.9111117947831</v>
+        <v>151.0800003529218</v>
       </c>
       <c r="R7">
-        <v>12.9111117947831</v>
+        <v>906.4800021175311</v>
       </c>
       <c r="S7">
-        <v>0.004475172438516345</v>
+        <v>0.03582924905179646</v>
       </c>
       <c r="T7">
-        <v>0.004475172438516345</v>
+        <v>0.0320137127385431</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.25649340773732</v>
+        <v>0.947356</v>
       </c>
       <c r="N8">
-        <v>2.25649340773732</v>
+        <v>2.842068</v>
       </c>
       <c r="O8">
-        <v>0.5688378436566034</v>
+        <v>0.1659783576875341</v>
       </c>
       <c r="P8">
-        <v>0.5688378436566034</v>
+        <v>0.1975525204651729</v>
       </c>
       <c r="Q8">
-        <v>322.1292637415899</v>
+        <v>59.12251967001734</v>
       </c>
       <c r="R8">
-        <v>322.1292637415899</v>
+        <v>532.102677030156</v>
       </c>
       <c r="S8">
-        <v>0.1116545209776912</v>
+        <v>0.01402115089276156</v>
       </c>
       <c r="T8">
-        <v>0.1116545209776912</v>
+        <v>0.01879201108690818</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.49078934037036</v>
+        <v>0.5007653333333333</v>
       </c>
       <c r="N9">
-        <v>1.49078934037036</v>
+        <v>1.502296</v>
       </c>
       <c r="O9">
-        <v>0.375812041291478</v>
+        <v>0.08773492500550716</v>
       </c>
       <c r="P9">
-        <v>0.375812041291478</v>
+        <v>0.1044247925400615</v>
       </c>
       <c r="Q9">
-        <v>212.8199758796805</v>
+        <v>31.25172402989244</v>
       </c>
       <c r="R9">
-        <v>212.8199758796805</v>
+        <v>281.265516269032</v>
       </c>
       <c r="S9">
-        <v>0.0737663886395354</v>
+        <v>0.007411476045468339</v>
       </c>
       <c r="T9">
-        <v>0.0737663886395354</v>
+        <v>0.009933317249206495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.219565507332094</v>
+        <v>1.522854666666667</v>
       </c>
       <c r="N10">
-        <v>0.219565507332094</v>
+        <v>4.568564</v>
       </c>
       <c r="O10">
-        <v>0.05535011505191859</v>
+        <v>0.2668066878450451</v>
       </c>
       <c r="P10">
-        <v>0.05535011505191859</v>
+        <v>0.3175614844917336</v>
       </c>
       <c r="Q10">
-        <v>31.3444191671087</v>
+        <v>95.03819576228757</v>
       </c>
       <c r="R10">
-        <v>31.3444191671087</v>
+        <v>855.3437618605881</v>
       </c>
       <c r="S10">
-        <v>0.01086441531817786</v>
+        <v>0.02253870252479473</v>
       </c>
       <c r="T10">
-        <v>0.01086441531817786</v>
+        <v>0.03020775904702125</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.754469995774</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>140.754469995774</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.1935325041959534</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.1935325041959534</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.25649340773732</v>
+        <v>0.3158855</v>
       </c>
       <c r="N11">
-        <v>2.25649340773732</v>
+        <v>0.631771</v>
       </c>
       <c r="O11">
-        <v>0.5688378436566034</v>
+        <v>0.05534366859692191</v>
       </c>
       <c r="P11">
-        <v>0.5688378436566034</v>
+        <v>0.04391448529971934</v>
       </c>
       <c r="Q11">
-        <v>317.6115336550245</v>
+        <v>19.71375775022617</v>
       </c>
       <c r="R11">
-        <v>317.6115336550245</v>
+        <v>118.282546501357</v>
       </c>
       <c r="S11">
-        <v>0.1100886123642887</v>
+        <v>0.004675199460746995</v>
       </c>
       <c r="T11">
-        <v>0.1100886123642887</v>
+        <v>0.004177327085906131</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H12">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I12">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J12">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.49078934037036</v>
+        <v>2.4208465</v>
       </c>
       <c r="N12">
-        <v>1.49078934037036</v>
+        <v>4.841693</v>
       </c>
       <c r="O12">
-        <v>0.375812041291478</v>
+        <v>0.4241363608649917</v>
       </c>
       <c r="P12">
-        <v>0.375812041291478</v>
+        <v>0.3365467172033127</v>
       </c>
       <c r="Q12">
-        <v>209.8352634791796</v>
+        <v>345.8472422039104</v>
       </c>
       <c r="R12">
-        <v>209.8352634791796</v>
+        <v>2075.083453223462</v>
       </c>
       <c r="S12">
-        <v>0.0727318454581328</v>
+        <v>0.08201910872289211</v>
       </c>
       <c r="T12">
-        <v>0.0727318454581328</v>
+        <v>0.0732847116591842</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H13">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I13">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J13">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.219565507332094</v>
+        <v>0.947356</v>
       </c>
       <c r="N13">
-        <v>0.219565507332094</v>
+        <v>2.842068</v>
       </c>
       <c r="O13">
-        <v>0.05535011505191859</v>
+        <v>0.1659783576875341</v>
       </c>
       <c r="P13">
-        <v>0.05535011505191859</v>
+        <v>0.1975525204651729</v>
       </c>
       <c r="Q13">
-        <v>30.90482661388212</v>
+        <v>135.3412783443013</v>
       </c>
       <c r="R13">
-        <v>30.90482661388212</v>
+        <v>1218.071505098712</v>
       </c>
       <c r="S13">
-        <v>0.01071204637353194</v>
+        <v>0.03209674581320385</v>
       </c>
       <c r="T13">
-        <v>0.01071204637353194</v>
+        <v>0.04301803809035275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H14">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I14">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J14">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.25649340773732</v>
+        <v>0.5007653333333333</v>
       </c>
       <c r="N14">
-        <v>2.25649340773732</v>
+        <v>1.502296</v>
       </c>
       <c r="O14">
-        <v>0.5688378436566034</v>
+        <v>0.08773492500550716</v>
       </c>
       <c r="P14">
-        <v>0.5688378436566034</v>
+        <v>0.1044247925400615</v>
       </c>
       <c r="Q14">
-        <v>309.5905077549365</v>
+        <v>71.54039280254044</v>
       </c>
       <c r="R14">
-        <v>309.5905077549365</v>
+        <v>643.8635352228639</v>
       </c>
       <c r="S14">
-        <v>0.1073084122849118</v>
+        <v>0.01696610103917038</v>
       </c>
       <c r="T14">
-        <v>0.1073084122849118</v>
+        <v>0.02273901488317119</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H15">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I15">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J15">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.49078934037036</v>
+        <v>1.522854666666667</v>
       </c>
       <c r="N15">
-        <v>1.49078934037036</v>
+        <v>4.568564</v>
       </c>
       <c r="O15">
-        <v>0.375812041291478</v>
+        <v>0.2668066878450451</v>
       </c>
       <c r="P15">
-        <v>0.375812041291478</v>
+        <v>0.3175614844917336</v>
       </c>
       <c r="Q15">
-        <v>204.5360413012268</v>
+        <v>217.5582329338196</v>
       </c>
       <c r="R15">
-        <v>204.5360413012268</v>
+        <v>1958.024096404376</v>
       </c>
       <c r="S15">
-        <v>0.07089506072469637</v>
+        <v>0.0515948377869051</v>
       </c>
       <c r="T15">
-        <v>0.07089506072469637</v>
+        <v>0.06915058336753883</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H16">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I16">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J16">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.219565507332094</v>
+        <v>0.3158855</v>
       </c>
       <c r="N16">
-        <v>0.219565507332094</v>
+        <v>0.631771</v>
       </c>
       <c r="O16">
-        <v>0.05535011505191859</v>
+        <v>0.05534366859692191</v>
       </c>
       <c r="P16">
-        <v>0.05535011505191859</v>
+        <v>0.04391448529971934</v>
       </c>
       <c r="Q16">
-        <v>30.12434987282989</v>
+        <v>45.12806946958566</v>
       </c>
       <c r="R16">
-        <v>30.12434987282989</v>
+        <v>270.768416817514</v>
       </c>
       <c r="S16">
-        <v>0.0104415221881654</v>
+        <v>0.01070230895204844</v>
       </c>
       <c r="T16">
-        <v>0.0104415221881654</v>
+        <v>0.009562596300433435</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H17">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I17">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J17">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.25649340773732</v>
+        <v>2.4208465</v>
       </c>
       <c r="N17">
-        <v>2.25649340773732</v>
+        <v>4.841693</v>
       </c>
       <c r="O17">
-        <v>0.5688378436566034</v>
+        <v>0.4241363608649917</v>
       </c>
       <c r="P17">
-        <v>0.5688378436566034</v>
+        <v>0.3365467172033127</v>
       </c>
       <c r="Q17">
-        <v>119.4699529342586</v>
+        <v>342.8326354898041</v>
       </c>
       <c r="R17">
-        <v>119.4699529342586</v>
+        <v>2056.995812938825</v>
       </c>
       <c r="S17">
-        <v>0.04140996136508326</v>
+        <v>0.08130418223030134</v>
       </c>
       <c r="T17">
-        <v>0.04140996136508326</v>
+        <v>0.07264591927674023</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H18">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I18">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J18">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>1.49078934037036</v>
+        <v>0.947356</v>
       </c>
       <c r="N18">
-        <v>1.49078934037036</v>
+        <v>2.842068</v>
       </c>
       <c r="O18">
-        <v>0.375812041291478</v>
+        <v>0.1659783576875341</v>
       </c>
       <c r="P18">
-        <v>0.375812041291478</v>
+        <v>0.1975525204651729</v>
       </c>
       <c r="Q18">
-        <v>78.92978181023543</v>
+        <v>134.1615646539666</v>
       </c>
       <c r="R18">
-        <v>78.92978181023543</v>
+        <v>1207.4540818857</v>
       </c>
       <c r="S18">
-        <v>0.02735816943959847</v>
+        <v>0.0318169718158377</v>
       </c>
       <c r="T18">
-        <v>0.02735816943959847</v>
+        <v>0.04264306772589806</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H19">
+        <v>424.850525</v>
+      </c>
+      <c r="I19">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J19">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.5007653333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.502296</v>
+      </c>
+      <c r="O19">
+        <v>0.08773492500550716</v>
+      </c>
+      <c r="P19">
+        <v>0.1044247925400615</v>
+      </c>
+      <c r="Q19">
+        <v>70.91680492282221</v>
+      </c>
+      <c r="R19">
+        <v>638.2512443054</v>
+      </c>
+      <c r="S19">
+        <v>0.01681821458566287</v>
+      </c>
+      <c r="T19">
+        <v>0.02254080833827542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H20">
+        <v>424.850525</v>
+      </c>
+      <c r="I20">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J20">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.522854666666667</v>
+      </c>
+      <c r="N20">
+        <v>4.568564</v>
+      </c>
+      <c r="O20">
+        <v>0.2668066878450451</v>
+      </c>
+      <c r="P20">
+        <v>0.3175614844917336</v>
+      </c>
+      <c r="Q20">
+        <v>215.6618682106778</v>
+      </c>
+      <c r="R20">
+        <v>1940.9568138961</v>
+      </c>
+      <c r="S20">
+        <v>0.05114510702307291</v>
+      </c>
+      <c r="T20">
+        <v>0.06854782646372282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H21">
+        <v>424.850525</v>
+      </c>
+      <c r="I21">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J21">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3158855</v>
+      </c>
+      <c r="N21">
+        <v>0.631771</v>
+      </c>
+      <c r="O21">
+        <v>0.05534366859692191</v>
+      </c>
+      <c r="P21">
+        <v>0.04391448529971934</v>
+      </c>
+      <c r="Q21">
+        <v>44.73470683829583</v>
+      </c>
+      <c r="R21">
+        <v>268.408241029775</v>
+      </c>
+      <c r="S21">
+        <v>0.01060902137161933</v>
+      </c>
+      <c r="T21">
+        <v>0.009479243121648863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>143.783834</v>
+      </c>
+      <c r="H22">
+        <v>431.351502</v>
+      </c>
+      <c r="I22">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J22">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.4208465</v>
+      </c>
+      <c r="N22">
+        <v>4.841693</v>
+      </c>
+      <c r="O22">
+        <v>0.4241363608649917</v>
+      </c>
+      <c r="P22">
+        <v>0.3365467172033127</v>
+      </c>
+      <c r="Q22">
+        <v>348.078591295481</v>
+      </c>
+      <c r="R22">
+        <v>2088.471547772886</v>
+      </c>
+      <c r="S22">
+        <v>0.08254828241985153</v>
+      </c>
+      <c r="T22">
+        <v>0.07375753247378629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>143.783834</v>
+      </c>
+      <c r="H23">
+        <v>431.351502</v>
+      </c>
+      <c r="I23">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J23">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.947356</v>
+      </c>
+      <c r="N23">
+        <v>2.842068</v>
+      </c>
+      <c r="O23">
+        <v>0.1659783576875341</v>
+      </c>
+      <c r="P23">
+        <v>0.1975525204651729</v>
+      </c>
+      <c r="Q23">
+        <v>136.214477842904</v>
+      </c>
+      <c r="R23">
+        <v>1225.930300586136</v>
+      </c>
+      <c r="S23">
+        <v>0.03230382869799504</v>
+      </c>
+      <c r="T23">
+        <v>0.04329558334299775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>143.783834</v>
+      </c>
+      <c r="H24">
+        <v>431.351502</v>
+      </c>
+      <c r="I24">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J24">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.5007653333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.502296</v>
+      </c>
+      <c r="O24">
+        <v>0.08773492500550716</v>
+      </c>
+      <c r="P24">
+        <v>0.1044247925400615</v>
+      </c>
+      <c r="Q24">
+        <v>72.00195956095465</v>
+      </c>
+      <c r="R24">
+        <v>648.017636048592</v>
+      </c>
+      <c r="S24">
+        <v>0.01707556351138789</v>
+      </c>
+      <c r="T24">
+        <v>0.02288572323880081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>143.783834</v>
+      </c>
+      <c r="H25">
+        <v>431.351502</v>
+      </c>
+      <c r="I25">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J25">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.522854666666667</v>
+      </c>
+      <c r="N25">
+        <v>4.568564</v>
+      </c>
+      <c r="O25">
+        <v>0.2668066878450451</v>
+      </c>
+      <c r="P25">
+        <v>0.3175614844917336</v>
+      </c>
+      <c r="Q25">
+        <v>218.9618825981253</v>
+      </c>
+      <c r="R25">
+        <v>1970.656943383128</v>
+      </c>
+      <c r="S25">
+        <v>0.05192771912981217</v>
+      </c>
+      <c r="T25">
+        <v>0.0695967314715268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>52.9449598765086</v>
-      </c>
-      <c r="H19">
-        <v>52.9449598765086</v>
-      </c>
-      <c r="I19">
-        <v>0.07279747968048636</v>
-      </c>
-      <c r="J19">
-        <v>0.07279747968048636</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.219565507332094</v>
-      </c>
-      <c r="N19">
-        <v>0.219565507332094</v>
-      </c>
-      <c r="O19">
-        <v>0.05535011505191859</v>
-      </c>
-      <c r="P19">
-        <v>0.05535011505191859</v>
-      </c>
-      <c r="Q19">
-        <v>11.62488697596297</v>
-      </c>
-      <c r="R19">
-        <v>11.62488697596297</v>
-      </c>
-      <c r="S19">
-        <v>0.004029348875804625</v>
-      </c>
-      <c r="T19">
-        <v>0.004029348875804625</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>143.783834</v>
+      </c>
+      <c r="H26">
+        <v>431.351502</v>
+      </c>
+      <c r="I26">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J26">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3158855</v>
+      </c>
+      <c r="N26">
+        <v>0.631771</v>
+      </c>
+      <c r="O26">
+        <v>0.05534366859692191</v>
+      </c>
+      <c r="P26">
+        <v>0.04391448529971934</v>
+      </c>
+      <c r="Q26">
+        <v>45.419228295007</v>
+      </c>
+      <c r="R26">
+        <v>272.515369770042</v>
+      </c>
+      <c r="S26">
+        <v>0.01077135847577945</v>
+      </c>
+      <c r="T26">
+        <v>0.009624292587013764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H27">
+        <v>106.034229</v>
+      </c>
+      <c r="I27">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J27">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.4208465</v>
+      </c>
+      <c r="N27">
+        <v>4.841693</v>
+      </c>
+      <c r="O27">
+        <v>0.4241363608649917</v>
+      </c>
+      <c r="P27">
+        <v>0.3365467172033127</v>
+      </c>
+      <c r="Q27">
+        <v>128.3462960774243</v>
+      </c>
+      <c r="R27">
+        <v>513.385184309697</v>
+      </c>
+      <c r="S27">
+        <v>0.03043785674008113</v>
+      </c>
+      <c r="T27">
+        <v>0.01813097451275455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H28">
+        <v>106.034229</v>
+      </c>
+      <c r="I28">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J28">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.947356</v>
+      </c>
+      <c r="N28">
+        <v>2.842068</v>
+      </c>
+      <c r="O28">
+        <v>0.1659783576875341</v>
+      </c>
+      <c r="P28">
+        <v>0.1975525204651729</v>
+      </c>
+      <c r="Q28">
+        <v>50.22608152426201</v>
+      </c>
+      <c r="R28">
+        <v>301.356489145572</v>
+      </c>
+      <c r="S28">
+        <v>0.01191132366709591</v>
+      </c>
+      <c r="T28">
+        <v>0.01064286035308626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H29">
+        <v>106.034229</v>
+      </c>
+      <c r="I29">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J29">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.5007653333333333</v>
+      </c>
+      <c r="N29">
+        <v>1.502296</v>
+      </c>
+      <c r="O29">
+        <v>0.08773492500550716</v>
+      </c>
+      <c r="P29">
+        <v>0.1044247925400615</v>
+      </c>
+      <c r="Q29">
+        <v>26.549133014964</v>
+      </c>
+      <c r="R29">
+        <v>159.294798089784</v>
+      </c>
+      <c r="S29">
+        <v>0.006296237070958019</v>
+      </c>
+      <c r="T29">
+        <v>0.005625736800456597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H30">
+        <v>106.034229</v>
+      </c>
+      <c r="I30">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J30">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.522854666666667</v>
+      </c>
+      <c r="N30">
+        <v>4.568564</v>
+      </c>
+      <c r="O30">
+        <v>0.2668066878450451</v>
+      </c>
+      <c r="P30">
+        <v>0.3175614844917336</v>
+      </c>
+      <c r="Q30">
+        <v>80.737360229526</v>
+      </c>
+      <c r="R30">
+        <v>484.4241613771561</v>
+      </c>
+      <c r="S30">
+        <v>0.01914720003104864</v>
+      </c>
+      <c r="T30">
+        <v>0.01710817217115748</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H31">
+        <v>106.034229</v>
+      </c>
+      <c r="I31">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J31">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.3158855</v>
+      </c>
+      <c r="N31">
+        <v>0.631771</v>
+      </c>
+      <c r="O31">
+        <v>0.05534366859692191</v>
+      </c>
+      <c r="P31">
+        <v>0.04391448529971934</v>
+      </c>
+      <c r="Q31">
+        <v>16.74733772238975</v>
+      </c>
+      <c r="R31">
+        <v>66.98935088955901</v>
+      </c>
+      <c r="S31">
+        <v>0.003971700640775405</v>
+      </c>
+      <c r="T31">
+        <v>0.002365830278561126</v>
       </c>
     </row>
   </sheetData>
